--- a/tests/test6/results.xlsx
+++ b/tests/test6/results.xlsx
@@ -545,10 +545,10 @@
         <v>23</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004845124999999371</v>
+        <v>0.004330804999999529</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0216462000000206</v>
+        <v>0.01969470000000229</v>
       </c>
     </row>
     <row r="3">
@@ -591,10 +591,10 @@
         <v>23</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004000325999999745</v>
+        <v>0.004128384999999497</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00732650000003332</v>
+        <v>0.00785630000000026</v>
       </c>
     </row>
     <row r="4">
@@ -637,10 +637,10 @@
         <v>23</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004363727000000495</v>
+        <v>0.004974968000000146</v>
       </c>
       <c r="N4" t="n">
-        <v>0.00928870000001325</v>
+        <v>0.01429399999999958</v>
       </c>
     </row>
     <row r="5">
@@ -683,10 +683,10 @@
         <v>23</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004169855999999186</v>
+        <v>0.00484458099999955</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01002650000003769</v>
+        <v>0.02101319999999873</v>
       </c>
     </row>
     <row r="6">
@@ -729,10 +729,10 @@
         <v>23</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003997555000002535</v>
+        <v>0.004608417000000031</v>
       </c>
       <c r="N6" t="n">
-        <v>0.008937399999979334</v>
+        <v>0.01355169999999362</v>
       </c>
     </row>
     <row r="7">
@@ -775,10 +775,10 @@
         <v>23</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004151447000002122</v>
+        <v>0.004495084999999506</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01040599999998904</v>
+        <v>0.01655899999998667</v>
       </c>
     </row>
     <row r="8">
@@ -821,10 +821,10 @@
         <v>24</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003747158999996713</v>
+        <v>0.00376176700000002</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03354769999998553</v>
+        <v>0.01467820000000586</v>
       </c>
     </row>
     <row r="9">
@@ -867,10 +867,10 @@
         <v>24</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00352636099999927</v>
+        <v>0.003397030000000427</v>
       </c>
       <c r="N9" t="n">
-        <v>0.009730199999978595</v>
+        <v>0.008379899999994223</v>
       </c>
     </row>
     <row r="10">
@@ -913,10 +913,10 @@
         <v>24</v>
       </c>
       <c r="M10" t="n">
-        <v>0.003564888999999312</v>
+        <v>0.003419689000000403</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0113690999999676</v>
+        <v>0.007959799999994743</v>
       </c>
     </row>
     <row r="11">
@@ -959,10 +959,10 @@
         <v>24</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003432976999999369</v>
+        <v>0.003256469999998899</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01443330000000742</v>
+        <v>0.00710870000000341</v>
       </c>
     </row>
     <row r="12">
@@ -1005,10 +1005,10 @@
         <v>25</v>
       </c>
       <c r="M12" t="n">
-        <v>0.003362895999998159</v>
+        <v>0.003387980000000255</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01544179999996231</v>
+        <v>0.01224440000000016</v>
       </c>
     </row>
     <row r="13">
@@ -1051,10 +1051,10 @@
         <v>25</v>
       </c>
       <c r="M13" t="n">
-        <v>0.003141727999999375</v>
+        <v>0.00357299700000155</v>
       </c>
       <c r="N13" t="n">
-        <v>0.008038399999975354</v>
+        <v>0.01878709999999728</v>
       </c>
     </row>
     <row r="14">
@@ -1097,10 +1097,10 @@
         <v>17</v>
       </c>
       <c r="M14" t="n">
-        <v>0.00280231700000229</v>
+        <v>0.002943097000000421</v>
       </c>
       <c r="N14" t="n">
-        <v>0.005594700000017383</v>
+        <v>0.004981200000003128</v>
       </c>
     </row>
     <row r="15">
@@ -1143,10 +1143,10 @@
         <v>17</v>
       </c>
       <c r="M15" t="n">
-        <v>0.003287351999999828</v>
+        <v>0.00300542300000032</v>
       </c>
       <c r="N15" t="n">
-        <v>0.01669050000003836</v>
+        <v>0.005822800000004236</v>
       </c>
     </row>
     <row r="16">
@@ -1189,10 +1189,10 @@
         <v>17</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002861698999998339</v>
+        <v>0.003048901000000086</v>
       </c>
       <c r="N16" t="n">
-        <v>0.005524799999989227</v>
+        <v>0.01196900000000767</v>
       </c>
     </row>
     <row r="17">
@@ -1235,10 +1235,10 @@
         <v>17</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002941094000002522</v>
+        <v>0.003144840000000357</v>
       </c>
       <c r="N17" t="n">
-        <v>0.00778170000000955</v>
+        <v>0.007297300000004725</v>
       </c>
     </row>
     <row r="18">
@@ -1281,10 +1281,10 @@
         <v>17</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002820679000000723</v>
+        <v>0.002914938000000973</v>
       </c>
       <c r="N18" t="n">
-        <v>0.005955400000004829</v>
+        <v>0.006090400000005047</v>
       </c>
     </row>
     <row r="19">
@@ -1327,10 +1327,10 @@
         <v>17</v>
       </c>
       <c r="M19" t="n">
-        <v>0.002798436000001061</v>
+        <v>0.003089709999999571</v>
       </c>
       <c r="N19" t="n">
-        <v>0.005223600000022088</v>
+        <v>0.0148387999999926</v>
       </c>
     </row>
     <row r="20">
@@ -1373,10 +1373,10 @@
         <v>13</v>
       </c>
       <c r="M20" t="n">
-        <v>0.002807791999999836</v>
+        <v>0.002804049000000219</v>
       </c>
       <c r="N20" t="n">
-        <v>0.00524820000003956</v>
+        <v>0.004957099999998604</v>
       </c>
     </row>
     <row r="21">
@@ -1419,10 +1419,10 @@
         <v>13</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002912315999998896</v>
+        <v>0.002748254000001111</v>
       </c>
       <c r="N21" t="n">
-        <v>0.01843980000001011</v>
+        <v>0.004693700000004242</v>
       </c>
     </row>
     <row r="22">
@@ -1465,10 +1465,10 @@
         <v>13</v>
       </c>
       <c r="M22" t="n">
-        <v>0.002703670999999872</v>
+        <v>0.002857075999998529</v>
       </c>
       <c r="N22" t="n">
-        <v>0.004655099999979484</v>
+        <v>0.005500699999998915</v>
       </c>
     </row>
     <row r="23">
@@ -1511,10 +1511,10 @@
         <v>12</v>
       </c>
       <c r="M23" t="n">
-        <v>0.002716894999999795</v>
+        <v>0.002817737000001301</v>
       </c>
       <c r="N23" t="n">
-        <v>0.00493860000000268</v>
+        <v>0.005571500000002061</v>
       </c>
     </row>
     <row r="24">
@@ -1557,10 +1557,10 @@
         <v>12</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002754361000003769</v>
+        <v>0.002828054999999807</v>
       </c>
       <c r="N24" t="n">
-        <v>0.006079499999998461</v>
+        <v>0.004952899999992155</v>
       </c>
     </row>
     <row r="25">
@@ -1603,10 +1603,10 @@
         <v>13</v>
       </c>
       <c r="M25" t="n">
-        <v>0.002839842999995881</v>
+        <v>0.002953110000000265</v>
       </c>
       <c r="N25" t="n">
-        <v>0.005322100000000773</v>
+        <v>0.007820100000003549</v>
       </c>
     </row>
     <row r="26">
@@ -1649,10 +1649,10 @@
         <v>12</v>
       </c>
       <c r="M26" t="n">
-        <v>0.002705014999999662</v>
+        <v>0.002767649000000318</v>
       </c>
       <c r="N26" t="n">
-        <v>0.004223200000012639</v>
+        <v>0.005212200000002554</v>
       </c>
     </row>
     <row r="27">
@@ -1695,10 +1695,10 @@
         <v>12</v>
       </c>
       <c r="M27" t="n">
-        <v>0.002733232000000498</v>
+        <v>0.003196798999999686</v>
       </c>
       <c r="N27" t="n">
-        <v>0.006083400000022721</v>
+        <v>0.008057300000004375</v>
       </c>
     </row>
     <row r="28">
@@ -1741,10 +1741,10 @@
         <v>12</v>
       </c>
       <c r="M28" t="n">
-        <v>0.002607605999997986</v>
+        <v>0.002851726999998618</v>
       </c>
       <c r="N28" t="n">
-        <v>0.004253300000016225</v>
+        <v>0.005168400000002293</v>
       </c>
     </row>
     <row r="29">
@@ -1787,10 +1787,10 @@
         <v>12</v>
       </c>
       <c r="M29" t="n">
-        <v>0.002608545999999592</v>
+        <v>0.002731376000001689</v>
       </c>
       <c r="N29" t="n">
-        <v>0.004338799999970888</v>
+        <v>0.004966899999999441</v>
       </c>
     </row>
     <row r="30">
@@ -1833,10 +1833,10 @@
         <v>12</v>
       </c>
       <c r="M30" t="n">
-        <v>0.002697908999994638</v>
+        <v>0.002794512000000679</v>
       </c>
       <c r="N30" t="n">
-        <v>0.004803300000048694</v>
+        <v>0.006008699999995315</v>
       </c>
     </row>
     <row r="31">
@@ -1879,10 +1879,10 @@
         <v>13</v>
       </c>
       <c r="M31" t="n">
-        <v>0.002689270999999849</v>
+        <v>0.002816372999999714</v>
       </c>
       <c r="N31" t="n">
-        <v>0.004819399999973939</v>
+        <v>0.005907000000007656</v>
       </c>
     </row>
   </sheetData>
